--- a/ch4.xlsx
+++ b/ch4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G.Serik\Desktop\Python files\h2maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G.Serik\Desktop\Python files\h2maps\ch4map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CEBAA0-6422-4B33-A0C2-736ECAA8B06C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6614EC84-DD08-4FA5-8076-2DA6BD4CB6E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1031">
   <si>
     <t>№</t>
   </si>
@@ -3097,13 +3097,31 @@
   </si>
   <si>
     <t>48.27906, 57.23427</t>
+  </si>
+  <si>
+    <t>КазГПЗ</t>
+  </si>
+  <si>
+    <t>43.363818, 52.825422</t>
+  </si>
+  <si>
+    <t>43.372260, 52.785111</t>
+  </si>
+  <si>
+    <t>43.375532, 52.837126</t>
+  </si>
+  <si>
+    <t>43.357187, 52.838899</t>
+  </si>
+  <si>
+    <t>43.351435, 52.788749</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3132,6 +3150,11 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3141,7 +3164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3246,11 +3269,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3314,6 +3346,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3535,7 +3577,7 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8194,12 +8236,33 @@
       </c>
     </row>
     <row r="107" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D107" s="25">
+        <v>11</v>
+      </c>
+      <c r="E107" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G107" s="26" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H107" s="26" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I107" s="26" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="108" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
